--- a/SourceCode/2024/April 2024/Ramya/Task4_REF_Nifty_TableExtraction/Data/Report.xlsx
+++ b/SourceCode/2024/April 2024/Ramya/Task4_REF_Nifty_TableExtraction/Data/Report.xlsx
@@ -28,22 +28,22 @@
     <x:t>%CHNG</x:t>
   </x:si>
   <x:si>
-    <x:t>22,147.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-0.56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,348.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,230.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.65</x:t>
+    <x:t>22,014.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-0.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,269.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.15</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -376,7 +376,7 @@
   <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B12" sqref="B12"/>
+      <x:selection activeCell="A1" sqref="A1 A1:B4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
